--- a/Data/EC/NIT-8909154751.xlsx
+++ b/Data/EC/NIT-8909154751.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354AF295-41D3-4EC0-85FF-E9CCC18AFD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3CD03A-DBB7-42BA-A40F-62985FA6EA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78AAA2B6-63DF-4173-8B13-F21BCFB5F4D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D734459E-10D4-45D9-BC07-C7968EFBA39A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="142">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,379 +65,370 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1044928783</t>
+  </si>
+  <si>
+    <t>TATIANA MARGARITA TORRES PUENTE</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>1047402500</t>
   </si>
   <si>
     <t>KATHERINE GARCIA GARCIA</t>
   </si>
   <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>60362894</t>
+  </si>
+  <si>
+    <t>MILENA ASTRID CAÃ±AS PEREZ</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1069472196</t>
+  </si>
+  <si>
+    <t>YURANY PAOLA DUEÑAS JARAMILLO</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1137524406</t>
+  </si>
+  <si>
+    <t>URIEL ENRIQUE CANTILLO TORRES</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
     <t>1042576020</t>
   </si>
   <si>
     <t>SEBASTIAN ENRIQUE MENDEZ NAVARRO</t>
   </si>
   <si>
-    <t>1044928783</t>
-  </si>
-  <si>
-    <t>TATIANA MARGARITA TORRES PUENTE</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1137524406</t>
-  </si>
-  <si>
-    <t>URIEL ENRIQUE CANTILLO TORRES</t>
-  </si>
-  <si>
-    <t>1069472196</t>
-  </si>
-  <si>
-    <t>YURANY PAOLA DUEÑAS JARAMILLO</t>
-  </si>
-  <si>
-    <t>1007975461</t>
-  </si>
-  <si>
-    <t>JORGE LUIS DIAZ GALEANO</t>
-  </si>
-  <si>
-    <t>60362894</t>
-  </si>
-  <si>
-    <t>MILENA ASTRID CAÃ±AS PEREZ</t>
-  </si>
-  <si>
-    <t>1048437435</t>
-  </si>
-  <si>
-    <t>DIDIER ALDAIR TAPIAS JIMENEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -536,7 +527,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -549,9 +542,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -751,23 +742,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,10 +786,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,7 +842,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B676C7D0-A2B5-5714-3A82-3263B0F92AC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3015065-BCA1-891D-BDB8-FEADC76E4AB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC4E2A0-84FC-4C3C-A661-20D06FD42DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AE1D4E-238A-4D4A-8078-1E954CF926E0}">
   <dimension ref="B2:J207"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1227,7 +1218,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1272,7 +1263,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1304,12 +1295,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6665959</v>
+        <v>6753213</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1320,17 +1311,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1357,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1380,10 +1371,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1403,10 +1394,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1426,10 +1417,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1449,10 +1440,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1472,10 +1463,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1495,10 +1486,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1518,10 +1509,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1541,10 +1532,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1564,10 +1555,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1587,10 +1578,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1610,10 +1601,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1633,10 +1624,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1656,10 +1647,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1679,10 +1670,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1702,10 +1693,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1725,10 +1716,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1748,10 +1739,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1771,10 +1762,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1794,10 +1785,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1817,10 +1808,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1840,10 +1831,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1863,10 +1854,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1886,10 +1877,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1909,10 +1900,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1932,10 +1923,10 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1955,10 +1946,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>33125</v>
+        <v>26000</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1978,10 +1969,10 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2001,10 +1992,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2024,10 +2015,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2047,10 +2038,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2070,10 +2061,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2093,10 +2084,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2116,10 +2107,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2139,10 +2130,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2162,10 +2153,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2185,10 +2176,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2208,10 +2199,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2231,10 +2222,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2254,10 +2245,10 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2277,10 +2268,10 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2291,13 +2282,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2320,13 +2311,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2337,13 +2328,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>33125</v>
@@ -2369,10 +2360,10 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2383,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>55</v>
@@ -2412,13 +2403,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2429,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2458,13 +2449,13 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2475,13 +2466,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2504,13 +2495,13 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F65" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2521,13 +2512,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2550,13 +2541,13 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2567,13 +2558,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2596,13 +2587,13 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2613,13 +2604,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2642,13 +2633,13 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F71" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2659,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2688,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F73" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2705,13 +2696,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2734,13 +2725,13 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F75" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2751,13 +2742,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2780,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F77" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2797,13 +2788,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2826,13 +2817,13 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F79" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2843,13 +2834,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2872,13 +2863,13 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F81" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2889,13 +2880,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2918,13 +2909,13 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F83" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2935,13 +2926,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2958,19 +2949,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F85" s="18">
-        <v>57200</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>1430000</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2981,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F86" s="18">
-        <v>11440</v>
+        <v>33125</v>
       </c>
       <c r="G86" s="18">
-        <v>1430000</v>
+        <v>828116</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3004,13 +2995,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -3027,19 +3018,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3050,13 +3041,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3073,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3096,13 +3087,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3119,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3142,13 +3133,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -3165,19 +3156,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3188,13 +3179,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3211,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3234,13 +3225,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3257,19 +3248,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3280,13 +3271,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3303,19 +3294,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3326,13 +3317,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3349,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3372,13 +3363,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3395,19 +3386,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3418,13 +3409,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3441,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3464,13 +3455,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3487,19 +3478,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3510,13 +3501,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3533,19 +3524,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3556,13 +3547,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3579,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3602,13 +3593,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3625,19 +3616,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D114" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3648,13 +3639,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3671,19 +3662,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D116" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E116" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3694,13 +3685,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3717,19 +3708,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3740,13 +3731,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3763,19 +3754,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3786,13 +3777,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3809,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3832,13 +3823,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3855,19 +3846,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3878,13 +3869,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3901,19 +3892,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3924,13 +3915,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3947,19 +3938,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3970,13 +3961,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3993,19 +3984,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4016,13 +4007,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -4039,19 +4030,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4062,13 +4053,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4085,19 +4076,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4108,13 +4099,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4131,19 +4122,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4154,13 +4145,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4177,19 +4168,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4200,13 +4191,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4223,19 +4214,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4246,13 +4237,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4269,19 +4260,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4292,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4315,19 +4306,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4338,13 +4329,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4361,19 +4352,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4384,13 +4375,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4407,19 +4398,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4430,13 +4421,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4453,19 +4444,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4476,13 +4467,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4499,19 +4490,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4522,13 +4513,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4545,19 +4536,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G154" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4568,13 +4559,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4591,19 +4582,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4614,13 +4605,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4637,19 +4628,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G158" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4660,13 +4651,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4683,19 +4674,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G160" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4706,13 +4697,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4729,19 +4720,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>480000</v>
       </c>
       <c r="G162" s="18">
-        <v>781242</v>
+        <v>14000000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4752,19 +4743,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4775,13 +4766,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4798,19 +4789,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F165" s="18">
-        <v>31249</v>
+        <v>480000</v>
       </c>
       <c r="G165" s="18">
-        <v>781242</v>
+        <v>14000000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4821,19 +4812,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4844,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4867,19 +4858,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>19947</v>
       </c>
       <c r="G168" s="18">
-        <v>781242</v>
+        <v>1600000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4890,19 +4881,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F169" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4913,16 +4904,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F170" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4936,19 +4927,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F171" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4959,16 +4950,16 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F172" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
         <v>781242</v>
@@ -4982,19 +4973,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F173" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G173" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5005,16 +4996,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F174" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -5028,19 +5019,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F175" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G175" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5051,16 +5042,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F176" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
         <v>781242</v>
@@ -5074,19 +5065,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F177" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G177" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5097,16 +5088,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F178" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G178" s="18">
         <v>781242</v>
@@ -5120,19 +5111,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F179" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G179" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5143,16 +5134,16 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F180" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
         <v>781242</v>
@@ -5166,19 +5157,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F181" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G181" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5189,16 +5180,16 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F182" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
         <v>781242</v>
@@ -5212,19 +5203,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F183" s="18">
-        <v>26000</v>
+        <v>39200</v>
       </c>
       <c r="G183" s="18">
-        <v>781242</v>
+        <v>1530000</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5235,19 +5226,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F184" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G184" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5258,16 +5249,16 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F185" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
         <v>781242</v>
@@ -5281,19 +5272,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F186" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G186" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5304,16 +5295,16 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F187" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
         <v>781242</v>
@@ -5327,19 +5318,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F188" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G188" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5350,16 +5341,16 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F189" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G189" s="18">
         <v>781242</v>
@@ -5373,19 +5364,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F190" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G190" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5396,16 +5387,16 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F191" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
         <v>781242</v>
@@ -5419,19 +5410,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F192" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G192" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5442,16 +5433,16 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F193" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G193" s="18">
         <v>781242</v>
@@ -5465,19 +5456,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F194" s="18">
-        <v>26000</v>
+        <v>33125</v>
       </c>
       <c r="G194" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5488,16 +5479,16 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F195" s="18">
-        <v>26000</v>
+        <v>31249</v>
       </c>
       <c r="G195" s="18">
         <v>781242</v>
@@ -5511,19 +5502,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="F196" s="18">
-        <v>39200</v>
+        <v>33125</v>
       </c>
       <c r="G196" s="18">
-        <v>1400000</v>
+        <v>828116</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5534,19 +5525,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D197" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E197" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E197" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F197" s="18">
-        <v>19947</v>
+        <v>57200</v>
       </c>
       <c r="G197" s="18">
-        <v>1360000</v>
+        <v>1430000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5557,19 +5548,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F198" s="18">
-        <v>11440</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>1430000</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5580,19 +5571,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E199" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D199" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F199" s="18">
-        <v>480000</v>
+        <v>33125</v>
       </c>
       <c r="G199" s="18">
-        <v>13200000</v>
+        <v>828116</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5603,19 +5594,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E200" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D200" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F200" s="18">
-        <v>480000</v>
+        <v>57200</v>
       </c>
       <c r="G200" s="18">
-        <v>13200000</v>
+        <v>1430000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5626,19 +5617,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F201" s="24">
-        <v>11440</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="24">
-        <v>1430000</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="25"/>
       <c r="I201" s="25"/>
@@ -5646,22 +5637,22 @@
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C206" s="32"/>
       <c r="H206" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C207" s="32"/>
       <c r="H207" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
